--- a/USHPRR/Ksink_coeffs.xlsx
+++ b/USHPRR/Ksink_coeffs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E630369A-0674-7A43-BE6F-A1D7D6C7FB94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B10503-A317-814F-BF64-E1E5D30B6D44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="6120" windowWidth="26440" windowHeight="15440" xr2:uid="{6CF2E687-CFF8-F646-B13B-A440C9541875}"/>
+    <workbookView xWindow="1760" yWindow="7440" windowWidth="26440" windowHeight="15440" xr2:uid="{6CF2E687-CFF8-F646-B13B-A440C9541875}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26504,8 +26504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001830D4-34A9-A74C-9F06-86896E41D133}">
   <dimension ref="B2:AJ507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M14" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
